--- a/as400_learning_note.xlsx
+++ b/as400_learning_note.xlsx
@@ -2381,9 +2381,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
@@ -3628,6 +3628,9 @@
       <c r="C143" s="82" t="s">
         <v>253</v>
       </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C127">
